--- a/JupyterNotebooks/AveragedIntensites/alpha1F-HW30.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha1F-HW30.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="alpha1F-HW30.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="alpha1F" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>

--- a/JupyterNotebooks/AveragedIntensites/alpha1F-HW30.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha1F-HW30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>HKL</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1064,6 +1064,47 @@
         <v>0.9940223368725167</v>
       </c>
     </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>0.9671164926603516</v>
+      </c>
+      <c r="D16">
+        <v>1.1173012170782</v>
+      </c>
+      <c r="E16">
+        <v>0.9646396893408864</v>
+      </c>
+      <c r="F16">
+        <v>0.9671164926603516</v>
+      </c>
+      <c r="G16">
+        <v>1.06341495830896</v>
+      </c>
+      <c r="H16">
+        <v>0.9131063717481164</v>
+      </c>
+      <c r="I16">
+        <v>0.9658307839933642</v>
+      </c>
+      <c r="J16">
+        <v>1.1173012170782</v>
+      </c>
+      <c r="K16">
+        <v>1.040970453209543</v>
+      </c>
+      <c r="L16">
+        <v>1.004043472934947</v>
+      </c>
+      <c r="M16">
+        <v>0.9985682521883131</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/JupyterNotebooks/AveragedIntensites/alpha1F-HW30.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha1F-HW30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -498,37 +501,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1069,7 +1072,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>0.9671164926603516</v>

--- a/JupyterNotebooks/AveragedIntensites/alpha1F-HW30.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha1F-HW30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -449,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,37 +510,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -829,37 +838,37 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.8923</v>
+        <v>0.9671164926603516</v>
       </c>
       <c r="D10">
-        <v>1.296451999999999</v>
+        <v>1.1173012170782</v>
       </c>
       <c r="E10">
-        <v>0.9335399999999994</v>
+        <v>0.9646396893408864</v>
       </c>
       <c r="F10">
-        <v>0.8923</v>
+        <v>0.9671164926603516</v>
       </c>
       <c r="G10">
-        <v>1.161671999999999</v>
+        <v>1.06341495830896</v>
       </c>
       <c r="H10">
-        <v>0.8393640000000016</v>
+        <v>0.9131063717481164</v>
       </c>
       <c r="I10">
-        <v>0.9183279999999989</v>
+        <v>0.9658307839933642</v>
       </c>
       <c r="J10">
-        <v>1.296451999999999</v>
+        <v>1.1173012170782</v>
       </c>
       <c r="K10">
-        <v>1.114995999999999</v>
+        <v>1.040970453209543</v>
       </c>
       <c r="L10">
-        <v>1.003648</v>
+        <v>1.004043472934947</v>
       </c>
       <c r="M10">
-        <v>1.006942666666666</v>
+        <v>0.9985682521883131</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -870,37 +879,37 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.8437374999999998</v>
+        <v>0.9979763275671436</v>
       </c>
       <c r="D11">
-        <v>1.51</v>
+        <v>0.9063137559222324</v>
       </c>
       <c r="E11">
-        <v>0.88</v>
+        <v>1.026894610473181</v>
       </c>
       <c r="F11">
-        <v>0.8437374999999998</v>
+        <v>0.9979763275671436</v>
       </c>
       <c r="G11">
-        <v>1.29</v>
+        <v>0.9373924796992724</v>
       </c>
       <c r="H11">
-        <v>0.6899999999999999</v>
+        <v>1.089775418852769</v>
       </c>
       <c r="I11">
-        <v>0.86</v>
+        <v>1.019581208165181</v>
       </c>
       <c r="J11">
-        <v>1.51</v>
+        <v>0.9063137559222324</v>
       </c>
       <c r="K11">
-        <v>1.195</v>
+        <v>0.9666041831977066</v>
       </c>
       <c r="L11">
-        <v>1.01936875</v>
+        <v>0.9822902553824251</v>
       </c>
       <c r="M11">
-        <v>1.012289583333333</v>
+        <v>0.9963223001132966</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -911,37 +920,37 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9065920592896004</v>
+        <v>0.9977361209357697</v>
       </c>
       <c r="D12">
-        <v>1.2962829060096</v>
+        <v>0.9071464250505598</v>
       </c>
       <c r="E12">
-        <v>0.9277807521792045</v>
+        <v>1.026721218279455</v>
       </c>
       <c r="F12">
-        <v>0.9065920592896004</v>
+        <v>0.9977361209357697</v>
       </c>
       <c r="G12">
-        <v>1.1657767430144</v>
+        <v>0.9378208138508721</v>
       </c>
       <c r="H12">
-        <v>0.8170818607104008</v>
+        <v>1.089351098758683</v>
       </c>
       <c r="I12">
-        <v>0.9175305474048041</v>
+        <v>1.019401977487226</v>
       </c>
       <c r="J12">
-        <v>1.2962829060096</v>
+        <v>0.9071464250505598</v>
       </c>
       <c r="K12">
-        <v>1.112031829094402</v>
+        <v>0.9669338216650076</v>
       </c>
       <c r="L12">
-        <v>1.009311944192001</v>
+        <v>0.9823349713003886</v>
       </c>
       <c r="M12">
-        <v>1.005174144768002</v>
+        <v>0.9963629423937609</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -952,37 +961,37 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9961450952923423</v>
+        <v>0.9979078733253837</v>
       </c>
       <c r="D13">
-        <v>0.9948645301437722</v>
+        <v>0.9066257400676264</v>
       </c>
       <c r="E13">
-        <v>0.9953072233463319</v>
+        <v>1.026802818205841</v>
       </c>
       <c r="F13">
-        <v>0.9961450952923423</v>
+        <v>0.9979078733253837</v>
       </c>
       <c r="G13">
-        <v>0.9961801600578998</v>
+        <v>0.9375139589488251</v>
       </c>
       <c r="H13">
-        <v>0.9944354238425219</v>
+        <v>1.089588817401622</v>
       </c>
       <c r="I13">
-        <v>0.9950813971028302</v>
+        <v>1.019528889404876</v>
       </c>
       <c r="J13">
-        <v>0.9948645301437722</v>
+        <v>0.9066257400676264</v>
       </c>
       <c r="K13">
-        <v>0.9950858767450521</v>
+        <v>0.9667142791367338</v>
       </c>
       <c r="L13">
-        <v>0.9956154860186972</v>
+        <v>0.9823110762310587</v>
       </c>
       <c r="M13">
-        <v>0.9953356382976164</v>
+        <v>0.9963280162256956</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -993,37 +1002,37 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.001489709722243</v>
+        <v>0.8923</v>
       </c>
       <c r="D14">
-        <v>0.976990827316586</v>
+        <v>1.296451999999999</v>
       </c>
       <c r="E14">
-        <v>1.000190759593898</v>
+        <v>0.9335399999999994</v>
       </c>
       <c r="F14">
-        <v>1.001489709722243</v>
+        <v>0.8923</v>
       </c>
       <c r="G14">
-        <v>0.9869174308476603</v>
+        <v>1.161671999999999</v>
       </c>
       <c r="H14">
-        <v>1.005506500119639</v>
+        <v>0.8393640000000016</v>
       </c>
       <c r="I14">
-        <v>1.000322646216012</v>
+        <v>0.9183279999999989</v>
       </c>
       <c r="J14">
-        <v>0.976990827316586</v>
+        <v>1.296451999999999</v>
       </c>
       <c r="K14">
-        <v>0.988590793455242</v>
+        <v>1.114995999999999</v>
       </c>
       <c r="L14">
-        <v>0.9950402515887424</v>
+        <v>1.003648</v>
       </c>
       <c r="M14">
-        <v>0.995236312302673</v>
+        <v>1.006942666666666</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1034,37 +1043,37 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.007815476445126</v>
+        <v>0.8437374999999998</v>
       </c>
       <c r="D15">
-        <v>0.9395948733573072</v>
+        <v>1.51</v>
       </c>
       <c r="E15">
-        <v>1.009061091913582</v>
+        <v>0.88</v>
       </c>
       <c r="F15">
-        <v>1.007815476445126</v>
+        <v>0.8437374999999998</v>
       </c>
       <c r="G15">
-        <v>0.9628406442300881</v>
+        <v>1.29</v>
       </c>
       <c r="H15">
-        <v>1.034194752031798</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I15">
-        <v>1.010627183257199</v>
+        <v>0.86</v>
       </c>
       <c r="J15">
-        <v>0.9395948733573072</v>
+        <v>1.51</v>
       </c>
       <c r="K15">
-        <v>0.9743279826354446</v>
+        <v>1.195</v>
       </c>
       <c r="L15">
-        <v>0.9910717295402853</v>
+        <v>1.01936875</v>
       </c>
       <c r="M15">
-        <v>0.9940223368725167</v>
+        <v>1.012289583333333</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1075,37 +1084,160 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9671164926603516</v>
+        <v>0.9065920592896004</v>
       </c>
       <c r="D16">
-        <v>1.1173012170782</v>
+        <v>1.2962829060096</v>
       </c>
       <c r="E16">
-        <v>0.9646396893408864</v>
+        <v>0.9277807521792045</v>
       </c>
       <c r="F16">
-        <v>0.9671164926603516</v>
+        <v>0.9065920592896004</v>
       </c>
       <c r="G16">
-        <v>1.06341495830896</v>
+        <v>1.1657767430144</v>
       </c>
       <c r="H16">
-        <v>0.9131063717481164</v>
+        <v>0.8170818607104008</v>
       </c>
       <c r="I16">
-        <v>0.9658307839933642</v>
+        <v>0.9175305474048041</v>
       </c>
       <c r="J16">
-        <v>1.1173012170782</v>
+        <v>1.2962829060096</v>
       </c>
       <c r="K16">
-        <v>1.040970453209543</v>
+        <v>1.112031829094402</v>
       </c>
       <c r="L16">
-        <v>1.004043472934947</v>
+        <v>1.009311944192001</v>
       </c>
       <c r="M16">
-        <v>0.9985682521883131</v>
+        <v>1.005174144768002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.9961450952923423</v>
+      </c>
+      <c r="D17">
+        <v>0.9948645301437722</v>
+      </c>
+      <c r="E17">
+        <v>0.9953072233463319</v>
+      </c>
+      <c r="F17">
+        <v>0.9961450952923423</v>
+      </c>
+      <c r="G17">
+        <v>0.9961801600578998</v>
+      </c>
+      <c r="H17">
+        <v>0.9944354238425219</v>
+      </c>
+      <c r="I17">
+        <v>0.9950813971028302</v>
+      </c>
+      <c r="J17">
+        <v>0.9948645301437722</v>
+      </c>
+      <c r="K17">
+        <v>0.9950858767450521</v>
+      </c>
+      <c r="L17">
+        <v>0.9956154860186972</v>
+      </c>
+      <c r="M17">
+        <v>0.9953356382976164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>1.001489709722243</v>
+      </c>
+      <c r="D18">
+        <v>0.976990827316586</v>
+      </c>
+      <c r="E18">
+        <v>1.000190759593898</v>
+      </c>
+      <c r="F18">
+        <v>1.001489709722243</v>
+      </c>
+      <c r="G18">
+        <v>0.9869174308476603</v>
+      </c>
+      <c r="H18">
+        <v>1.005506500119639</v>
+      </c>
+      <c r="I18">
+        <v>1.000322646216012</v>
+      </c>
+      <c r="J18">
+        <v>0.976990827316586</v>
+      </c>
+      <c r="K18">
+        <v>0.988590793455242</v>
+      </c>
+      <c r="L18">
+        <v>0.9950402515887424</v>
+      </c>
+      <c r="M18">
+        <v>0.995236312302673</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>1.007815476445126</v>
+      </c>
+      <c r="D19">
+        <v>0.9395948733573072</v>
+      </c>
+      <c r="E19">
+        <v>1.009061091913582</v>
+      </c>
+      <c r="F19">
+        <v>1.007815476445126</v>
+      </c>
+      <c r="G19">
+        <v>0.9628406442300881</v>
+      </c>
+      <c r="H19">
+        <v>1.034194752031798</v>
+      </c>
+      <c r="I19">
+        <v>1.010627183257199</v>
+      </c>
+      <c r="J19">
+        <v>0.9395948733573072</v>
+      </c>
+      <c r="K19">
+        <v>0.9743279826354446</v>
+      </c>
+      <c r="L19">
+        <v>0.9910717295402853</v>
+      </c>
+      <c r="M19">
+        <v>0.9940223368725167</v>
       </c>
     </row>
   </sheetData>
